--- a/medicine/Psychotrope/Achel_(bière)/Achel_(bière).xlsx
+++ b/medicine/Psychotrope/Achel_(bière)/Achel_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Achel_(bi%C3%A8re)</t>
+          <t>Achel_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Achel était une bière trappiste belge, brassée à l'abbaye Notre-Dame de Saint-Benoît (Sint Benedictus Abdij), à Achel (province de Limbourg) tout près de la frontière néerlandaise.
-Depuis 2021, elle n'est plus labellisée Authentic Trappist Product car il n'y a plus de moines à l'abbaye Notre-Dame de Saint-Benoît, mais le brassage reste sous la supervision de l'abbé de l'abbaye de Westmalle[2].
-En 2023, l'abbaye et sa brasserie sont vendues. En conséquence, aucun moine ne sera plus impliqué dans le processus de brassage[3].
+Depuis 2021, elle n'est plus labellisée Authentic Trappist Product car il n'y a plus de moines à l'abbaye Notre-Dame de Saint-Benoît, mais le brassage reste sous la supervision de l'abbé de l'abbaye de Westmalle.
+En 2023, l'abbaye et sa brasserie sont vendues. En conséquence, aucun moine ne sera plus impliqué dans le processus de brassage.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Achel_(bi%C3%A8re)</t>
+          <t>Achel_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abbaye est fondée en 1846[4]. La brasserie existe depuis 1850[1]. Naguère, elle produisait deux bières en pression ainsi qu'une bière blonde sur lie mais la production de ces bières a été arrêtée.
-Depuis 2003, la production de la bière trappiste « Achel » se décline en 6 variétés[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abbaye est fondée en 1846. La brasserie existe depuis 1850. Naguère, elle produisait deux bières en pression ainsi qu'une bière blonde sur lie mais la production de ces bières a été arrêtée.
+Depuis 2003, la production de la bière trappiste « Achel » se décline en 6 variétés :
 une brune pression, titrant 5 %
 une blonde pression, titrant 5 %
 l'Achel blonde, une triple légèrement ambrée refermentée en bouteille, titrant 8 % d'alcool
@@ -526,7 +540,7 @@
 l'Achel extra blonde, titrant 9,5 % d'alcool
 Ces deux dernières sont brassées occasionnellement et commercialisées en bouteilles de 75 cl.
 L'embouteillage en bouteilles de 33 et 75 cl est effectué à la brasserie BIOS-Van Steenberge, à Ertvelde.
-L'Achel est l'une des onze bières arborant en 2017 le logo hexagonal du label international Authentic trappist product (ATP). En janvier 2021, la bière a perdu son titre d'ATP, parce que les derniers moines de l'abbaye ont déménagé à l'abbaye de Westmalle[6].
+L'Achel est l'une des onze bières arborant en 2017 le logo hexagonal du label international Authentic trappist product (ATP). En janvier 2021, la bière a perdu son titre d'ATP, parce que les derniers moines de l'abbaye ont déménagé à l'abbaye de Westmalle.
 </t>
         </is>
       </c>
